--- a/joint_VDZP/stats.xlsx
+++ b/joint_VDZP/stats.xlsx
@@ -710,7 +710,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FeO</t>
+          <t>Fe(IV)O$^{2+}$</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FeO</t>
+          <t>Fe(IV)O$^{2+}$</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
